--- a/assets/sample_docs/Ancienneté_septembre_19R.xlsx
+++ b/assets/sample_docs/Ancienneté_septembre_19R.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\LCVC\Commun\999_nouvelle_structure\0400_ress_humaine\0403_info_employe\aquatique\Ressources_humaines\Syndicat\Convention_collective\Ancienneté\Septembre_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Horia\PhpstormProjects\BrossardAquaticIntranet\assets\sample_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDC344-4A1D-412C-8E6F-DCD3D6C34981}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="13380" yWindow="1956" windowWidth="19308" windowHeight="9864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Surveillance" sheetId="2" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="118">
   <si>
     <t>Rang</t>
   </si>
@@ -380,12 +381,15 @@
   </si>
   <si>
     <t>Plourde, Salomë</t>
+  </si>
+  <si>
+    <t>Gagné-Vincent, Mia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1234,25 +1238,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="85" t="s">
         <v>106</v>
       </c>
@@ -1262,7 +1266,7 @@
       <c r="E1" s="86"/>
       <c r="F1" s="87"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>108</v>
       </c>
@@ -1272,7 +1276,7 @@
       <c r="E2" s="89"/>
       <c r="F2" s="90"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1302,7 +1306,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>3033.92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>2599.42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>2466.09</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>2248.09</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>1989.34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>1892.66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>1846.08</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>1799.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>1680.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>1511.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>1427.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>1315.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -1537,7 +1541,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>1264.17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>1245.42</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>16</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>1216.42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>17</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>1171.33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>18</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>1098.92</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>19</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>1069.3800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>20</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>1065.22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>21</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>1059.9100000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>22</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>1038.25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>23</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>1008.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>25</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>930.01</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>26</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>904.17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>27</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>28</v>
       </c>
@@ -1790,7 +1794,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>29</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>846.75</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>30</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>826.58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>31</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>782.09</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>32</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>733.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>33</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>699.75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>34</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>685.67</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>35</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>36</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>617.16999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>37</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>38</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>590.13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>39</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>570.08000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>40</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>553.83000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>41</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>501.33</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>42</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>480.17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>43</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>44</v>
       </c>
@@ -2078,12 +2082,12 @@
         <v>457.25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>45</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C48" s="22">
         <v>42994</v>
@@ -2096,7 +2100,7 @@
         <v>438.92</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>46</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>47</v>
       </c>
@@ -2133,7 +2137,7 @@
       </c>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>48</v>
       </c>
@@ -2152,7 +2156,7 @@
       </c>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>49</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>337.26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>50</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>306.58999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>51</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>299.17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>52</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>275.17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>53</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>250.92</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>54</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>238.67</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>55</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>235.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>56</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>205.6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>57</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>200.17</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>58</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>195.67</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>59</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>186.75</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>60</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>61</v>
       </c>
@@ -2387,7 +2391,7 @@
       </c>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>62</v>
       </c>
@@ -2406,7 +2410,7 @@
       </c>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>63</v>
       </c>
@@ -2424,7 +2428,7 @@
         <v>129.16999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>64</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>106.42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>65</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>104.17</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>66</v>
       </c>
@@ -2479,7 +2483,7 @@
       </c>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>67</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>90.66</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>68</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>69</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>70</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>71</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>72</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>73</v>
       </c>
@@ -2606,7 +2610,7 @@
       </c>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>74</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>75</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>76</v>
       </c>
@@ -2661,7 +2665,7 @@
       </c>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>77</v>
       </c>
@@ -2679,7 +2683,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>78</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>79</v>
       </c>
@@ -2716,7 +2720,7 @@
       </c>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>80</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>81</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>82</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>83</v>
       </c>
@@ -2789,7 +2793,7 @@
       </c>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>84</v>
       </c>
@@ -2808,7 +2812,7 @@
       </c>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>85</v>
       </c>
@@ -2826,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="71">
         <v>86</v>
       </c>
@@ -2845,7 +2849,7 @@
       </c>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="72">
         <v>87</v>
       </c>
@@ -2864,7 +2868,7 @@
       </c>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="73">
         <v>88</v>
       </c>
@@ -2883,7 +2887,7 @@
       </c>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="74">
         <v>89</v>
       </c>
@@ -2902,7 +2906,7 @@
       </c>
       <c r="G92" s="68"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="74">
         <v>90</v>
       </c>
@@ -2921,7 +2925,7 @@
       </c>
       <c r="G93" s="68"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="74">
         <v>91</v>
       </c>
@@ -2940,7 +2944,7 @@
       </c>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>92</v>
       </c>
@@ -2959,7 +2963,7 @@
       </c>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>93</v>
       </c>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>94</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>95</v>
       </c>
@@ -3014,39 +3018,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B99" s="80"/>
       <c r="C99" s="77"/>
       <c r="D99" s="78"/>
       <c r="E99" s="79"/>
       <c r="F99" s="81"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B100" s="60" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="61"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B101" s="62" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="63"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="65"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B103" s="66" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="67"/>
     </row>
   </sheetData>
-  <sortState ref="A5:G102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G102">
     <sortCondition descending="1" ref="F5:F102"/>
   </sortState>
   <mergeCells count="3">
@@ -3060,30 +3064,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="10"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="10"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="85" t="s">
         <v>107</v>
       </c>
@@ -3100,7 +3104,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>108</v>
       </c>
@@ -3117,7 +3121,7 @@
       <c r="L2" s="89"/>
       <c r="M2" s="90"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="33.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -3175,7 +3179,7 @@
       </c>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>2660.34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>2</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>2117.15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>3</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>2030.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>4</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>1931.82</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>5</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>1333.33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>7</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>1293.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>8</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>1230.24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>9</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>1035.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>1030.25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>11</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>988.92</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>12</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>953.38</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>13</v>
       </c>
@@ -3558,7 +3562,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>14</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>748.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>15</v>
       </c>
@@ -3617,7 +3621,7 @@
       </c>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>16</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>671.25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>17</v>
       </c>
@@ -3671,7 +3675,7 @@
         <v>669.5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>18</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>19</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="37">
         <v>20</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>634.91999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>21</v>
       </c>
@@ -3781,7 +3785,7 @@
         <v>626.25</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>22</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>607.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>23</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>559.5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>24</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>545.34</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="37">
         <v>25</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>529.25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>26</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>431.09</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>27</v>
       </c>
@@ -3948,7 +3952,7 @@
       </c>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <v>28</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>377.75</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="37">
         <v>29</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>377.34</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>30</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>370.83</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>31</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>324.25</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="37">
         <v>32</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>315.25</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="37">
         <v>33</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>310.92</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>34</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>309.64</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>35</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="37">
         <v>36</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>292.45</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="37">
         <v>37</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>38</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>39</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>269.08</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="37">
         <v>40</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>248.92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="37">
         <v>41</v>
       </c>
@@ -4334,7 +4338,7 @@
         <v>248.25</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>42</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>237.75</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <v>43</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>231.17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="37">
         <v>44</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>226.75</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="37">
         <v>45</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>206.84</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>46</v>
       </c>
@@ -4474,7 +4478,7 @@
       </c>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>47</v>
       </c>
@@ -4501,7 +4505,7 @@
         <v>203.42</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="37">
         <v>48</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="37">
         <v>49</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>183.25</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>50</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>159.25</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>51</v>
       </c>
@@ -4606,7 +4610,7 @@
       </c>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>52</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="37">
         <v>53</v>
       </c>
@@ -4659,7 +4663,7 @@
       </c>
       <c r="O57" s="9"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>54</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>60.45</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>55</v>
       </c>
@@ -4714,7 +4718,7 @@
       </c>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="37">
         <v>56</v>
       </c>
@@ -4741,7 +4745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="37">
         <v>57</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>58</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>59</v>
       </c>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="37">
         <v>60</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="37">
         <v>61</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>62</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>63</v>
       </c>
@@ -4930,7 +4934,7 @@
       </c>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="37">
         <v>64</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="37">
         <v>65</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>66</v>
       </c>
@@ -5012,7 +5016,7 @@
       </c>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>67</v>
       </c>
@@ -5037,7 +5041,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="37">
         <v>68</v>
       </c>
@@ -5063,7 +5067,7 @@
       </c>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>70</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>71</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="37">
         <v>72</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="37">
         <v>73</v>
       </c>
@@ -5168,7 +5172,7 @@
       </c>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>74</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>75</v>
       </c>
@@ -5223,7 +5227,7 @@
       </c>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="37">
         <v>76</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="37">
         <v>77</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>78</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>79</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="37">
         <v>80</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="37">
         <v>81</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>82</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>83</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="37">
         <v>84</v>
       </c>
@@ -5455,7 +5459,7 @@
       </c>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="37">
         <v>85</v>
       </c>
@@ -5483,7 +5487,7 @@
       </c>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="71">
         <v>86</v>
       </c>
@@ -5511,7 +5515,7 @@
       </c>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="72">
         <v>87</v>
       </c>
@@ -5539,7 +5543,7 @@
       </c>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="75">
         <v>88</v>
       </c>
@@ -5565,7 +5569,7 @@
       </c>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="76">
         <v>89</v>
       </c>
@@ -5593,7 +5597,7 @@
       </c>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="74">
         <v>90</v>
       </c>
@@ -5623,7 +5627,7 @@
       </c>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="74">
         <v>91</v>
       </c>
@@ -5651,7 +5655,7 @@
       </c>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="37">
         <v>92</v>
       </c>
@@ -5679,7 +5683,7 @@
       </c>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="37">
         <v>93</v>
       </c>
@@ -5707,7 +5711,7 @@
       </c>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>94</v>
       </c>
@@ -5735,7 +5739,7 @@
       </c>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>95</v>
       </c>
@@ -5763,32 +5767,32 @@
       </c>
       <c r="N98" s="9"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B100" s="60" t="s">
         <v>109</v>
       </c>
       <c r="C100" s="61"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B101" s="62" t="s">
         <v>110</v>
       </c>
       <c r="C101" s="63"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B102" s="64" t="s">
         <v>111</v>
       </c>
       <c r="C102" s="65"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B103" s="66" t="s">
         <v>112</v>
       </c>
       <c r="C103" s="67"/>
     </row>
   </sheetData>
-  <sortState ref="A5:N101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N101">
     <sortCondition descending="1" ref="M5:M101"/>
   </sortState>
   <mergeCells count="3">
